--- a/data/pytestApi.xlsx
+++ b/data/pytestApi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\pytestApi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FFBCF5-E173-4944-8F2A-CE3E9E0FA045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC4F3D9-F1C9-4105-9C77-F884AEEAAFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{8A258589-08C9-470C-ABC1-2A71A0F4B09A}"/>
+    <workbookView xWindow="25812" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8A258589-08C9-470C-ABC1-2A71A0F4B09A}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>主菜单</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -99,54 +100,66 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>token填写正确，两次密码不相同新增用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>token填写正确，用户名不重复，密码大于等于6位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>{"password":"","password_confirm": "88888888","username":"001"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password": "55555","password_confirm": "88888888","username": "001"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password": "88888888","password_confirm": "88888888","username": "001"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"55555","password_confirm":"88888888","username":"001"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code':500,'msg':'Key:'userAddRequest.password'Error:Field validation for 'password' failed on the'required' tag'}</t>
+  </si>
+  <si>
     <t>{
-"password": "55555",
-"password_confirm": "88888888",
-"username": "001"
+'code': 500, 'msg': 'Key: 'userAddRequest.password' Error:Field validation for 'password' failed on the 'min' tag'
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-'code': 500, 'msg': "Key: 'userAddRequest.password' Error:Field validation for 'password' failed on the 'min' tag"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>token填写正确，两次密码不相同新增用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>token填写正确，用户名不重复，密码大于等于6位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 40003, 'msg': '两次输入的密码不相同'}</t>
   </si>
   <si>
     <t>{
 'code': 0, 'data': {'id': 122, 'created_at': 1600163676, 'username': 'dasf', 'role': 3}, 'msg': ''
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>{"password":"","password_confirm": "88888888","username":"001"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password": "55555","password_confirm": "88888888","username": "001"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password": "88888888","password_confirm": "88888888","username": "001"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code':500,'msg':"Key:'userAddRequest.password'Error:Field validation for 'password' failed on the'required' tag"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 40003, 'msg': '两次输入的密码不相同'}</t>
+  </si>
+  <si>
+    <t>{"code":500,"msg":"Key:'userAddRequest.password'Error:Field validation for 'password' failed on the'required' tag"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code": 500, "msg": "Key: 'userAddRequest.password' Error:Field validation for 'password' failed on the 'min' tag"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 40003, "msg": "两次输入的密码不相同"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code": 0, "data": {'id': 122, 'created_at': 1600163676, "username": 'dasf', 'role': 3}, 'msg': ''
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +618,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -613,7 +626,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="43.25" customWidth="1"/>
+    <col min="8" max="8" width="43.5" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="19.08203125" customWidth="1"/>
   </cols>
@@ -653,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -673,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -706,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>2</v>
@@ -719,7 +732,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -727,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -739,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
@@ -754,13 +767,13 @@
     </row>
     <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -772,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>2</v>
@@ -803,4 +816,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683AA21-CBC4-4F8D-B5F2-C0A2B16B2B74}">
+  <dimension ref="B5:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:2" ht="188.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="246.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="188.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>